--- a/mode.xlsx
+++ b/mode.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="5月" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -199,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -234,22 +233,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,41 +286,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,21 +323,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -344,25 +347,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,37 +390,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,31 +534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,109 +552,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,15 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -652,9 +642,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,6 +690,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -712,17 +722,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -731,10 +730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,79 +742,79 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,55 +823,55 @@
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,7 +1222,7 @@
   <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1601,30 +1600,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="36.875" customWidth="1"/>
-    <col min="8" max="9" width="9.14166666666667" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>